--- a/biology/Botanique/Polystachya_bipoda/Polystachya_bipoda.xlsx
+++ b/biology/Botanique/Polystachya_bipoda/Polystachya_bipoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystachya bipoda Stévart est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Polystachya, présente au Cameroun, en Guinée équatoriale et au Gabon. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe épiphyte glabre qui peut atteindre 9 cm de haut[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe épiphyte glabre qui peut atteindre 9 cm de haut.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée au parc national de Monte Alén, dans le Río Muni (auj. Région continentale, Guinée équatoriale), dans les monts de Cristal au Gabon et au sud du Cameroun, à Akom II, où elle est menacée par l'exploitation forestière[3]. Son aire de distribution est limitée, mais elle y est très fréquente[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée au parc national de Monte Alén, dans le Río Muni (auj. Région continentale, Guinée équatoriale), dans les monts de Cristal au Gabon et au sud du Cameroun, à Akom II, où elle est menacée par l'exploitation forestière. Son aire de distribution est limitée, mais elle y est très fréquente.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve notamment dans les touffes de mousses et de fougères en lisière, sur des inselbergs, également dans la canopée de la forêt dense submontagnarde, à une altitude comprise entre 680 et 1 110 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve notamment dans les touffes de mousses et de fougères en lisière, sur des inselbergs, également dans la canopée de la forêt dense submontagnarde, à une altitude comprise entre 680 et 1 110 m.
 </t>
         </is>
       </c>
